--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Module Name :</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Success</t>
+  </si>
+  <si>
+    <t>18,June,2021</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -685,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:14">
